--- a/blog-posts/assets/compare-page.xlsx
+++ b/blog-posts/assets/compare-page.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Crowdfunding Platform Competiti" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
